--- a/data/regression_name_list357.xlsx
+++ b/data/regression_name_list357.xlsx
@@ -469,7 +469,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4302,7 +4302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4398,7 +4398,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
